--- a/scripts/orderstpl.xlsx
+++ b/scripts/orderstpl.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinzhou/Documents/DunningSystem/scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="580">
   <si>
     <t>订单编号</t>
   </si>
@@ -1434,9 +1444,6 @@
     <t>邓楠</t>
   </si>
   <si>
-    <t>部分还清</t>
-  </si>
-  <si>
     <t>OPPOR7PLUS</t>
   </si>
   <si>
@@ -1756,19 +1763,16 @@
   </si>
   <si>
     <t>13037732379</t>
+  </si>
+  <si>
+    <t>部分还款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,345 +1799,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2141,251 +1821,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2433,63 +1871,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2503,7 +1899,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="AutoShape 1" descr="res://\\PK.PNG"/>
         <xdr:cNvSpPr>
@@ -2545,7 +1941,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1027" name="AutoShape 3" descr="res://\\PK.PNG"/>
         <xdr:cNvSpPr>
@@ -2587,7 +1983,7 @@
       <xdr:row>111</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1029" name="AutoShape 5" descr="res://\\PK.PNG"/>
         <xdr:cNvSpPr>
@@ -2629,7 +2025,7 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1030" name="AutoShape 6" descr="res://\\PK.PNG"/>
         <xdr:cNvSpPr>
@@ -2947,39 +2343,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="9.45" customWidth="1"/>
-    <col min="3" max="3" width="19.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.075" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="11" max="11" width="38.2333333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.0833333333333" customWidth="1"/>
-    <col min="13" max="13" width="15.1416666666667" customWidth="1"/>
-    <col min="17" max="17" width="14.5583333333333" customWidth="1"/>
-    <col min="18" max="18" width="16.9083333333333" customWidth="1"/>
-    <col min="20" max="20" width="12.7916666666667" customWidth="1"/>
-    <col min="21" max="21" width="12.6416666666667" customWidth="1"/>
-    <col min="22" max="22" width="12.2083333333333" customWidth="1"/>
-    <col min="23" max="23" width="13.675" customWidth="1"/>
-    <col min="24" max="24" width="17.9333333333333" customWidth="1"/>
-    <col min="25" max="25" width="18.9666666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:25">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -3131,7 +2522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:25">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -3206,7 +2597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:25">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -3281,7 +2672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:25">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
@@ -3356,7 +2747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:25">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -3431,7 +2822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:25">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>93</v>
       </c>
@@ -3506,7 +2897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:25">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>106</v>
       </c>
@@ -3583,7 +2974,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:25">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>119</v>
       </c>
@@ -3658,7 +3049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:25">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>132</v>
       </c>
@@ -3733,7 +3124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:25">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>145</v>
       </c>
@@ -3808,7 +3199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:25">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -3883,7 +3274,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:25">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>168</v>
       </c>
@@ -3958,7 +3349,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:25">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>182</v>
       </c>
@@ -4033,7 +3424,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:25">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>194</v>
       </c>
@@ -4108,7 +3499,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:25">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>203</v>
       </c>
@@ -4183,7 +3574,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:25">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>215</v>
       </c>
@@ -4260,7 +3651,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:25">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>227</v>
       </c>
@@ -4337,7 +3728,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:25">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>237</v>
       </c>
@@ -4414,7 +3805,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:25">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>248</v>
       </c>
@@ -4491,7 +3882,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:25">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>258</v>
       </c>
@@ -4568,7 +3959,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:25">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>268</v>
       </c>
@@ -4645,7 +4036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:25">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>280</v>
       </c>
@@ -4722,7 +4113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:25">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>290</v>
       </c>
@@ -4799,7 +4190,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:25">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>302</v>
       </c>
@@ -4876,7 +4267,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:25">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>313</v>
       </c>
@@ -4953,7 +4344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:25">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>325</v>
       </c>
@@ -5030,7 +4421,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:25">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>335</v>
       </c>
@@ -5107,7 +4498,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:25">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>345</v>
       </c>
@@ -5184,7 +4575,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:25">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>356</v>
       </c>
@@ -5259,7 +4650,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:25">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>368</v>
       </c>
@@ -5334,7 +4725,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:25">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>381</v>
       </c>
@@ -5411,7 +4802,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:25">
+    <row r="33" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>392</v>
       </c>
@@ -5488,7 +4879,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:25">
+    <row r="34" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>404</v>
       </c>
@@ -5565,7 +4956,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:25">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>413</v>
       </c>
@@ -5642,7 +5033,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:25">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>424</v>
       </c>
@@ -5719,7 +5110,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:25">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>435</v>
       </c>
@@ -5796,7 +5187,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:25">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>447</v>
       </c>
@@ -5873,7 +5264,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:25">
+    <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>459</v>
       </c>
@@ -5950,7 +5341,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:25">
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>470</v>
       </c>
@@ -5976,19 +5367,19 @@
         <v>304</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>472</v>
+        <v>579</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L40" s="11">
         <v>6500</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N40" s="3">
         <v>1038</v>
@@ -6003,33 +5394,33 @@
         <v>440</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S40" s="3">
         <v>3001</v>
       </c>
       <c r="T40" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="U40" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="V40" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="V40" s="8" t="s">
+      <c r="W40" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="W40" s="8" t="s">
+      <c r="X40" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="Y40" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="Y40" s="8" t="s">
+    </row>
+    <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:25">
-      <c r="A41" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>471</v>
@@ -6053,19 +5444,19 @@
         <v>304</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>472</v>
+        <v>579</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L41" s="11">
         <v>6500</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N41" s="3">
         <v>1039</v>
@@ -6077,36 +5468,36 @@
         <v>3</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S41" s="3">
         <v>3002</v>
       </c>
       <c r="T41" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="U41" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="U41" s="8" t="s">
+      <c r="V41" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="W41" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="X41" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="Y41" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:25">
-      <c r="A42" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>63</v>
@@ -6130,19 +5521,19 @@
         <v>304</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>472</v>
+        <v>579</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>148</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L42" s="11">
         <v>6500</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N42" s="3">
         <v>1040</v>
@@ -6154,39 +5545,39 @@
         <v>3</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S42" s="3">
         <v>3003</v>
       </c>
       <c r="T42" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="U42" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="U42" s="8" t="s">
+      <c r="V42" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="V42" s="8" t="s">
+      <c r="W42" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="W42" s="8" t="s">
+      <c r="X42" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="Y42" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="Y42" s="8" t="s">
+    </row>
+    <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:25">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C43" s="6">
         <v>15106720309</v>
@@ -6207,19 +5598,19 @@
         <v>304</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>159</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L43" s="11">
         <v>6500</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N43" s="3">
         <v>1041</v>
@@ -6231,39 +5622,39 @@
         <v>3</v>
       </c>
       <c r="Q43" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="R43" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>503</v>
       </c>
       <c r="S43" s="3">
         <v>3004</v>
       </c>
       <c r="T43" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="U43" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="U43" s="8" t="s">
+      <c r="V43" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="V43" s="8" t="s">
+      <c r="W43" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="W43" s="8" t="s">
+      <c r="X43" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="Y43" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="Y43" s="8" t="s">
+    </row>
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:25">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="C44" s="6">
         <v>15107187703</v>
@@ -6275,7 +5666,7 @@
         <v>304</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>304</v>
@@ -6284,7 +5675,7 @@
         <v>304</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>171</v>
@@ -6308,36 +5699,36 @@
         <v>3</v>
       </c>
       <c r="Q44" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="R44" s="11" t="s">
         <v>513</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>514</v>
       </c>
       <c r="S44" s="3">
         <v>3005</v>
       </c>
       <c r="T44" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="U44" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="U44" s="8" t="s">
+      <c r="V44" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="V44" s="8" t="s">
-        <v>517</v>
       </c>
       <c r="W44" s="8">
         <v>13886633723</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y44" s="8">
         <v>18972321366</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:25">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>65</v>
@@ -6361,13 +5752,13 @@
         <v>304</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>451</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L45" s="11">
         <v>6500</v>
@@ -6385,19 +5776,19 @@
         <v>2</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S45" s="3">
         <v>3006</v>
       </c>
       <c r="T45" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="U45" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="U45" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="V45" s="8" t="s">
         <v>63</v>
@@ -6409,15 +5800,15 @@
         <v>55</v>
       </c>
       <c r="Y45" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="C46" s="6">
         <v>15171632144</v>
@@ -6429,28 +5820,28 @@
         <v>304</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L46" s="11">
         <v>6500</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N46" s="3">
         <v>1044</v>
@@ -6462,39 +5853,39 @@
         <v>3</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S46" s="3">
         <v>3007</v>
       </c>
       <c r="T46" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="U46" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="U46" s="8" t="s">
+      <c r="V46" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="V46" s="8" t="s">
+      <c r="W46" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="W46" s="8" t="s">
+      <c r="X46" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="X46" s="8" t="s">
+      <c r="Y46" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="Y46" s="8" t="s">
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:25">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="C47" s="6">
         <v>15172346395</v>
@@ -6515,19 +5906,19 @@
         <v>304</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L47" s="11">
         <v>6500</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N47" s="3">
         <v>1045</v>
@@ -6539,39 +5930,39 @@
         <v>3</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S47" s="3">
         <v>3008</v>
       </c>
       <c r="T47" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="U47" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="U47" s="8" t="s">
+      <c r="V47" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="V47" s="8" t="s">
+      <c r="W47" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="W47" s="8" t="s">
+      <c r="X47" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="X47" s="8" t="s">
+      <c r="Y47" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="Y47" s="8" t="s">
+    </row>
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:25">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="C48" s="6">
         <v>15172706427</v>
@@ -6592,19 +5983,19 @@
         <v>304</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L48" s="11">
         <v>6500</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N48" s="3">
         <v>1046</v>
@@ -6616,19 +6007,19 @@
         <v>3</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S48" s="3">
         <v>3009</v>
       </c>
       <c r="T48" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="U48" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="U48" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="V48" s="8" t="s">
         <v>362</v>
@@ -6637,18 +6028,18 @@
         <v>363</v>
       </c>
       <c r="X48" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y48" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="Y48" s="8" t="s">
+    </row>
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:25">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="C49" s="6">
         <v>15172869873</v>
@@ -6669,19 +6060,19 @@
         <v>304</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>148</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L49" s="11">
         <v>6500</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N49" s="3">
         <v>1047</v>
@@ -6693,39 +6084,39 @@
         <v>4</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S49" s="3">
         <v>3010</v>
       </c>
       <c r="T49" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="U49" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="U49" s="8" t="s">
+      <c r="V49" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="V49" s="8" t="s">
+      <c r="W49" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="W49" s="8" t="s">
+      <c r="X49" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="X49" s="8" t="s">
+      <c r="Y49" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="Y49" s="8" t="s">
+    </row>
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:25">
-      <c r="A50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="C50" s="6">
         <v>15181089156</v>
@@ -6737,7 +6128,7 @@
         <v>304</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>304</v>
@@ -6746,19 +6137,19 @@
         <v>304</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>159</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L50" s="11">
         <v>6500</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N50" s="3">
         <v>1048</v>
@@ -6770,34 +6161,34 @@
         <v>2</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S50" s="3">
         <v>3011</v>
       </c>
       <c r="T50" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="U50" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="U50" s="8" t="s">
+      <c r="V50" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="V50" s="8" t="s">
+      <c r="W50" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="W50" s="8" t="s">
+      <c r="X50" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="X50" s="8" t="s">
+      <c r="Y50" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="Y50" s="8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -6805,7 +6196,7 @@
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -6813,871 +6204,865 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>